--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.042121-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.042121-1.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5307,12 +5307,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5421,12 +5421,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5573,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6067,12 +6067,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6295,12 +6295,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6333,12 +6333,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6371,12 +6371,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6979,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7017,12 +7017,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7205,12 +7205,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7357,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8571,12 +8571,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9027,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9749,12 +9749,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10247,12 +10247,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10741,12 +10741,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11083,12 +11083,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11121,12 +11121,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11311,12 +11311,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11805,12 +11805,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12033,12 +12033,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12147,12 +12147,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12223,12 +12223,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12261,12 +12261,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12375,12 +12375,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12451,12 +12451,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12907,12 +12907,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13173,12 +13173,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13325,12 +13325,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13933,12 +13933,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14047,12 +14047,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14275,12 +14275,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14621,12 +14621,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14659,12 +14659,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15081,12 +15081,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15119,12 +15119,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15535,12 +15535,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15611,12 +15611,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15725,12 +15725,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16573,12 +16573,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16805,12 +16805,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17953,12 +17953,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18907,12 +18907,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19137,12 +19137,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19443,12 +19443,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19595,12 +19595,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20739,12 +20739,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21351,12 +21351,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21693,12 +21693,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21731,12 +21731,12 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21845,12 +21845,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21921,12 +21921,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23255,12 +23255,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23411,12 +23411,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24019,12 +24019,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24057,12 +24057,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24825,12 +24825,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24901,12 +24901,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24977,12 +24977,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
